--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,12 +385,12 @@
   <dimension ref="A4:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
